--- a/data/analysis/indicators_social/socmedia_indic-time_weekly-facebook-1W-data.xlsx
+++ b/data/analysis/indicators_social/socmedia_indic-time_weekly-facebook-1W-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="9">
   <si>
     <t>ts</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1073"/>
+  <dimension ref="A1:C1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1265</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -537,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>1196</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -867,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1194</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -878,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1153</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>1208</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="C84">
-        <v>1241</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="C96">
-        <v>1413</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="C100">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C102">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>1128</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C112">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C118">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="C124">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="C126">
-        <v>1222</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C130">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="C132">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="C142">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="C144">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="C145">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="C150">
-        <v>1019</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C154">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="C156">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="C157">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="C163">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="C164">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="C168">
-        <v>1031</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="C169">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="C173">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="C175">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="C180">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>8</v>
       </c>
       <c r="C181">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="C183">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="C187">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="C189">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="C192">
-        <v>1178</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="C195">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="C197">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="C198">
-        <v>1151</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="C199">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="C202">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2638,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="C203">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>7</v>
       </c>
       <c r="C204">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2660,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="C205">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="C206">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="C209">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2715,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="C211">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2737,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="C218">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2825,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="C220">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <v>1163</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="C224">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="C226">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="C228">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>8</v>
       </c>
       <c r="C229">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="C230">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="C233">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2979,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3001,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C238">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3034,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="C239">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3045,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="C240">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="C241">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="C242">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C246">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="C248">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
       <c r="C249">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3155,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="C250">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="C251">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="C252">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3188,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="C253">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="C257">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="C258">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="C260">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="C261">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3287,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="C262">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="C264">
-        <v>1313</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3331,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="C268">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3364,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="C269">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3375,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="C270">
-        <v>1207</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="C272">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="C275">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C277">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="C278">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3474,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>5</v>
       </c>
       <c r="C280">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>6</v>
       </c>
       <c r="C281">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="C282">
-        <v>1121</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="C284">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="C285">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3562,7 +3562,7 @@
         <v>6</v>
       </c>
       <c r="C287">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="C288">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>8</v>
       </c>
       <c r="C289">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="C290">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3606,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3617,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="C292">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="C294">
-        <v>1271</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3650,7 +3650,7 @@
         <v>8</v>
       </c>
       <c r="C295">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="C296">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3683,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="C298">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3694,7 +3694,7 @@
         <v>6</v>
       </c>
       <c r="C299">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="C300">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="C302">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="C303">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>1516</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3782,7 +3782,7 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3793,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="C308">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3804,7 +3804,7 @@
         <v>4</v>
       </c>
       <c r="C309">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3826,7 +3826,7 @@
         <v>6</v>
       </c>
       <c r="C311">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3837,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="C312">
-        <v>1952</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3859,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="C314">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="C315">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="C317">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="C318">
-        <v>1882</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="C320">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3936,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="C321">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3947,7 +3947,7 @@
         <v>5</v>
       </c>
       <c r="C322">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>6</v>
       </c>
       <c r="C323">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3969,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="C324">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="C325">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="C326">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="C327">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="C330">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4046,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="C331">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4057,7 +4057,7 @@
         <v>3</v>
       </c>
       <c r="C332">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="C333">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>6</v>
       </c>
       <c r="C335">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4101,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="C336">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4112,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="C337">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="C338">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4134,7 +4134,7 @@
         <v>4</v>
       </c>
       <c r="C339">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4145,7 +4145,7 @@
         <v>5</v>
       </c>
       <c r="C340">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4156,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="C341">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="C342">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="C343">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="C344">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="C345">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="C347">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4233,7 +4233,7 @@
         <v>7</v>
       </c>
       <c r="C348">
-        <v>1215</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4244,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="C349">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4255,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="C350">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4266,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="C351">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="C352">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4288,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="C353">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="C354">
-        <v>1646</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4310,7 +4310,7 @@
         <v>8</v>
       </c>
       <c r="C355">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4321,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="C356">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4332,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="C357">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="C358">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4354,7 +4354,7 @@
         <v>6</v>
       </c>
       <c r="C359">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="C360">
-        <v>1504</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4376,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="C361">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="C362">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4398,7 +4398,7 @@
         <v>4</v>
       </c>
       <c r="C363">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4409,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="C364">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4431,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="C366">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4442,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="C367">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="C368">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4464,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="C369">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4475,7 +4475,7 @@
         <v>5</v>
       </c>
       <c r="C370">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4486,7 +4486,7 @@
         <v>6</v>
       </c>
       <c r="C371">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4497,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="C372">
-        <v>1184</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4508,7 +4508,7 @@
         <v>8</v>
       </c>
       <c r="C373">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4519,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="C374">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4530,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="C375">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4563,7 +4563,7 @@
         <v>7</v>
       </c>
       <c r="C378">
-        <v>1275</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4574,7 +4574,7 @@
         <v>8</v>
       </c>
       <c r="C379">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="C380">
-        <v>4303</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="C381">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4607,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="C382">
-        <v>2721</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>6</v>
       </c>
       <c r="C383">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>7</v>
       </c>
       <c r="C384">
-        <v>5807</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="C385">
-        <v>1406</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="C386">
-        <v>1882</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>4</v>
       </c>
       <c r="C387">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="C388">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>6</v>
       </c>
       <c r="C389">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="C390">
-        <v>2592</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>8</v>
       </c>
       <c r="C391">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="C392">
-        <v>1103</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="C393">
-        <v>663</v>
+        <v>679</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>6</v>
       </c>
       <c r="C395">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="C396">
-        <v>2190</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="C397">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="C398">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="C399">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>5</v>
       </c>
       <c r="C400">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>6</v>
       </c>
       <c r="C401">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="C402">
-        <v>2211</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="C403">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C404">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4860,7 +4860,7 @@
         <v>4</v>
       </c>
       <c r="C405">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4882,7 +4882,7 @@
         <v>6</v>
       </c>
       <c r="C407">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4893,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="C408">
-        <v>1848</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4904,7 +4904,7 @@
         <v>8</v>
       </c>
       <c r="C409">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="C410">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="C411">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4937,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="C412">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="C413">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4959,7 +4959,7 @@
         <v>7</v>
       </c>
       <c r="C414">
-        <v>1749</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4970,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="C415">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4981,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="C416">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4992,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="C417">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="C418">
-        <v>2564</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5014,7 +5014,7 @@
         <v>6</v>
       </c>
       <c r="C419">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="C420">
-        <v>2136</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5036,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="C421">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5047,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="C422">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5058,7 +5058,7 @@
         <v>4</v>
       </c>
       <c r="C423">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="C424">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5091,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="C426">
-        <v>1954</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5102,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="C427">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5113,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="C428">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5124,7 +5124,7 @@
         <v>4</v>
       </c>
       <c r="C429">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="C430">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5146,7 +5146,7 @@
         <v>6</v>
       </c>
       <c r="C431">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5168,7 +5168,7 @@
         <v>8</v>
       </c>
       <c r="C433">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5179,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="C434">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5190,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="C435">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="C437">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="C438">
-        <v>2507</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5234,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="C439">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="C440">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5256,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="C441">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5289,7 +5289,7 @@
         <v>7</v>
       </c>
       <c r="C444">
-        <v>2618</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5300,7 +5300,7 @@
         <v>8</v>
       </c>
       <c r="C445">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="C446">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5322,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="C447">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="C448">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5355,7 +5355,7 @@
         <v>7</v>
       </c>
       <c r="C450">
-        <v>3065</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5366,7 +5366,7 @@
         <v>8</v>
       </c>
       <c r="C451">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>3</v>
       </c>
       <c r="C452">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5388,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="C453">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="C454">
-        <v>2146</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>7</v>
       </c>
       <c r="C456">
-        <v>2705</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5432,7 +5432,7 @@
         <v>8</v>
       </c>
       <c r="C457">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5443,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="C458">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="C459">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5465,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="C460">
-        <v>2251</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5487,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="C462">
-        <v>3409</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="C463">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5509,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="C464">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5520,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="C465">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>7</v>
       </c>
       <c r="C468">
-        <v>4683</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="C469">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="C470">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="C471">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5597,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="C472">
-        <v>2297</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="C473">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>7</v>
       </c>
       <c r="C474">
-        <v>6092</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>8</v>
       </c>
       <c r="C475">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="C476">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="C477">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>5</v>
       </c>
       <c r="C478">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="C479">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="C480">
-        <v>4820</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5696,7 +5696,7 @@
         <v>8</v>
       </c>
       <c r="C481">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="C482">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="C483">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="C485">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>7</v>
       </c>
       <c r="C486">
-        <v>4364</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>8</v>
       </c>
       <c r="C487">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="C488">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="C489">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>5</v>
       </c>
       <c r="C490">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="C491">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>7</v>
       </c>
       <c r="C492">
-        <v>4046</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>8</v>
       </c>
       <c r="C493">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
       <c r="C494">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>4</v>
       </c>
       <c r="C495">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="C496">
-        <v>1728</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="C497">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>7</v>
       </c>
       <c r="C498">
-        <v>3806</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>8</v>
       </c>
       <c r="C499">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="C500">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="C501">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="C502">
-        <v>1751</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>6</v>
       </c>
       <c r="C503">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="C504">
-        <v>3018</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5960,7 +5960,7 @@
         <v>8</v>
       </c>
       <c r="C505">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5971,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="C506">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5982,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="C507">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6004,7 +6004,7 @@
         <v>6</v>
       </c>
       <c r="C509">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6015,7 +6015,7 @@
         <v>7</v>
       </c>
       <c r="C510">
-        <v>2969</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6026,7 +6026,7 @@
         <v>8</v>
       </c>
       <c r="C511">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6037,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="C512">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6048,7 +6048,7 @@
         <v>4</v>
       </c>
       <c r="C513">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="C514">
-        <v>1722</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6070,7 +6070,7 @@
         <v>6</v>
       </c>
       <c r="C515">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6081,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="C516">
-        <v>2712</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6092,7 +6092,7 @@
         <v>8</v>
       </c>
       <c r="C517">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="C518">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6114,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="C519">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6125,7 +6125,7 @@
         <v>5</v>
       </c>
       <c r="C520">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6136,7 +6136,7 @@
         <v>6</v>
       </c>
       <c r="C521">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6147,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="C522">
-        <v>3218</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6158,7 +6158,7 @@
         <v>8</v>
       </c>
       <c r="C523">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6169,7 +6169,7 @@
         <v>3</v>
       </c>
       <c r="C524">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6180,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="C525">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6191,7 +6191,7 @@
         <v>5</v>
       </c>
       <c r="C526">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
       <c r="C528">
-        <v>2454</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6224,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="C529">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6235,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="C530">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6246,7 +6246,7 @@
         <v>4</v>
       </c>
       <c r="C531">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6257,7 +6257,7 @@
         <v>5</v>
       </c>
       <c r="C532">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="C534">
-        <v>2213</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6290,7 +6290,7 @@
         <v>8</v>
       </c>
       <c r="C535">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6301,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="C536">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6312,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="C537">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6345,7 +6345,7 @@
         <v>7</v>
       </c>
       <c r="C540">
-        <v>2162</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6356,7 +6356,7 @@
         <v>8</v>
       </c>
       <c r="C541">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6367,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="C542">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6378,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="C543">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6389,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="C544">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6400,7 +6400,7 @@
         <v>6</v>
       </c>
       <c r="C545">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6411,7 +6411,7 @@
         <v>7</v>
       </c>
       <c r="C546">
-        <v>2414</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>8</v>
       </c>
       <c r="C547">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6433,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="C548">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="C549">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6455,7 +6455,7 @@
         <v>5</v>
       </c>
       <c r="C550">
-        <v>1595</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6466,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="C551">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6477,7 +6477,7 @@
         <v>7</v>
       </c>
       <c r="C552">
-        <v>1946</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6488,7 +6488,7 @@
         <v>8</v>
       </c>
       <c r="C553">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6499,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="C554">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6510,7 +6510,7 @@
         <v>4</v>
       </c>
       <c r="C555">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="C556">
-        <v>1964</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6532,7 +6532,7 @@
         <v>6</v>
       </c>
       <c r="C557">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6543,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="C558">
-        <v>1825</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="C559">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6565,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="C560">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6576,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="C561">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6587,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="C562">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6598,7 +6598,7 @@
         <v>6</v>
       </c>
       <c r="C563">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="C564">
-        <v>2134</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6620,7 +6620,7 @@
         <v>8</v>
       </c>
       <c r="C565">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="C566">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6642,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="C567">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6653,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="C568">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6664,7 +6664,7 @@
         <v>6</v>
       </c>
       <c r="C569">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
       <c r="C570">
-        <v>2163</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6686,7 +6686,7 @@
         <v>8</v>
       </c>
       <c r="C571">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6697,7 +6697,7 @@
         <v>3</v>
       </c>
       <c r="C572">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6708,7 +6708,7 @@
         <v>4</v>
       </c>
       <c r="C573">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6719,7 +6719,7 @@
         <v>5</v>
       </c>
       <c r="C574">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="C576">
-        <v>2200</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6752,7 +6752,7 @@
         <v>8</v>
       </c>
       <c r="C577">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6763,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="C578">
-        <v>2718</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6774,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="C579">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6785,7 +6785,7 @@
         <v>5</v>
       </c>
       <c r="C580">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6807,7 +6807,7 @@
         <v>7</v>
       </c>
       <c r="C582">
-        <v>5013</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6818,7 +6818,7 @@
         <v>8</v>
       </c>
       <c r="C583">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6829,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="C584">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6840,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="C585">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C586">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6873,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="C588">
-        <v>2305</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6884,7 +6884,7 @@
         <v>8</v>
       </c>
       <c r="C589">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6895,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="C590">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6906,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="C591">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6917,7 +6917,7 @@
         <v>5</v>
       </c>
       <c r="C592">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6939,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="C594">
-        <v>2206</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>8</v>
       </c>
       <c r="C595">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6961,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="C596">
-        <v>1055</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6972,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="C597">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6983,7 +6983,7 @@
         <v>5</v>
       </c>
       <c r="C598">
-        <v>2870</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6994,7 +6994,7 @@
         <v>6</v>
       </c>
       <c r="C599">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7005,7 +7005,7 @@
         <v>7</v>
       </c>
       <c r="C600">
-        <v>3700</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7016,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="C601">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7027,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="C602">
-        <v>990</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7038,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="C603">
-        <v>765</v>
+        <v>776</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>6</v>
       </c>
       <c r="C605">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7071,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="C606">
-        <v>4309</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7082,7 +7082,7 @@
         <v>8</v>
       </c>
       <c r="C607">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7093,7 +7093,7 @@
         <v>3</v>
       </c>
       <c r="C608">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7104,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="C609">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7115,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="C610">
-        <v>2304</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7126,7 +7126,7 @@
         <v>6</v>
       </c>
       <c r="C611">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
       <c r="C612">
-        <v>2495</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7148,7 +7148,7 @@
         <v>8</v>
       </c>
       <c r="C613">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>3</v>
       </c>
       <c r="C614">
-        <v>1309</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7170,7 +7170,7 @@
         <v>4</v>
       </c>
       <c r="C615">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7181,7 +7181,7 @@
         <v>5</v>
       </c>
       <c r="C616">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7192,7 +7192,7 @@
         <v>6</v>
       </c>
       <c r="C617">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7203,7 +7203,7 @@
         <v>7</v>
       </c>
       <c r="C618">
-        <v>3193</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7214,7 +7214,7 @@
         <v>8</v>
       </c>
       <c r="C619">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7225,7 +7225,7 @@
         <v>3</v>
       </c>
       <c r="C620">
-        <v>1433</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7236,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="C621">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7247,7 +7247,7 @@
         <v>5</v>
       </c>
       <c r="C622">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7269,7 +7269,7 @@
         <v>7</v>
       </c>
       <c r="C624">
-        <v>3630</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7280,7 +7280,7 @@
         <v>8</v>
       </c>
       <c r="C625">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7291,7 +7291,7 @@
         <v>3</v>
       </c>
       <c r="C626">
-        <v>977</v>
+        <v>991</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7302,7 +7302,7 @@
         <v>4</v>
       </c>
       <c r="C627">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7335,7 +7335,7 @@
         <v>7</v>
       </c>
       <c r="C630">
-        <v>3064</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7346,7 +7346,7 @@
         <v>8</v>
       </c>
       <c r="C631">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7357,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="C632">
-        <v>1384</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7368,7 +7368,7 @@
         <v>4</v>
       </c>
       <c r="C633">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7379,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="C634">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7401,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="C636">
-        <v>2130</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="C637">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7423,7 +7423,7 @@
         <v>3</v>
       </c>
       <c r="C638">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7434,7 +7434,7 @@
         <v>4</v>
       </c>
       <c r="C639">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7445,7 +7445,7 @@
         <v>5</v>
       </c>
       <c r="C640">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7467,7 +7467,7 @@
         <v>7</v>
       </c>
       <c r="C642">
-        <v>1846</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7478,7 +7478,7 @@
         <v>8</v>
       </c>
       <c r="C643">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7489,7 +7489,7 @@
         <v>3</v>
       </c>
       <c r="C644">
-        <v>822</v>
+        <v>862</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7500,7 +7500,7 @@
         <v>4</v>
       </c>
       <c r="C645">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7511,7 +7511,7 @@
         <v>5</v>
       </c>
       <c r="C646">
-        <v>1805</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7522,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="C647">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7533,7 +7533,7 @@
         <v>7</v>
       </c>
       <c r="C648">
-        <v>1674</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7544,7 +7544,7 @@
         <v>8</v>
       </c>
       <c r="C649">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7555,7 +7555,7 @@
         <v>3</v>
       </c>
       <c r="C650">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7566,7 +7566,7 @@
         <v>4</v>
       </c>
       <c r="C651">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7577,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="C652">
-        <v>2093</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7588,7 +7588,7 @@
         <v>6</v>
       </c>
       <c r="C653">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7599,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="C654">
-        <v>1375</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7610,7 +7610,7 @@
         <v>8</v>
       </c>
       <c r="C655">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7621,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="C656">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7632,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="C657">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7643,7 +7643,7 @@
         <v>5</v>
       </c>
       <c r="C658">
-        <v>2331</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7654,7 +7654,7 @@
         <v>6</v>
       </c>
       <c r="C659">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7665,7 +7665,7 @@
         <v>7</v>
       </c>
       <c r="C660">
-        <v>1707</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7676,7 +7676,7 @@
         <v>8</v>
       </c>
       <c r="C661">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7687,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="C662">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7698,7 +7698,7 @@
         <v>4</v>
       </c>
       <c r="C663">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7709,7 +7709,7 @@
         <v>5</v>
       </c>
       <c r="C664">
-        <v>2281</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7720,7 +7720,7 @@
         <v>6</v>
       </c>
       <c r="C665">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7731,7 +7731,7 @@
         <v>7</v>
       </c>
       <c r="C666">
-        <v>1851</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7742,7 +7742,7 @@
         <v>8</v>
       </c>
       <c r="C667">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7753,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="C668">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7764,7 +7764,7 @@
         <v>4</v>
       </c>
       <c r="C669">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="C670">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7797,7 +7797,7 @@
         <v>7</v>
       </c>
       <c r="C672">
-        <v>1521</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7808,7 +7808,7 @@
         <v>8</v>
       </c>
       <c r="C673">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7819,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="C674">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7830,7 +7830,7 @@
         <v>4</v>
       </c>
       <c r="C675">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7841,7 +7841,7 @@
         <v>5</v>
       </c>
       <c r="C676">
-        <v>2165</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7863,7 +7863,7 @@
         <v>7</v>
       </c>
       <c r="C678">
-        <v>2534</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7874,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="C679">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7885,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="C680">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7896,7 +7896,7 @@
         <v>4</v>
       </c>
       <c r="C681">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7907,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="C682">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7929,7 +7929,7 @@
         <v>7</v>
       </c>
       <c r="C684">
-        <v>2164</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7940,7 +7940,7 @@
         <v>8</v>
       </c>
       <c r="C685">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7951,7 +7951,7 @@
         <v>3</v>
       </c>
       <c r="C686">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7962,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="C687">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7973,7 +7973,7 @@
         <v>5</v>
       </c>
       <c r="C688">
-        <v>1864</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7984,7 +7984,7 @@
         <v>6</v>
       </c>
       <c r="C689">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7995,7 +7995,7 @@
         <v>7</v>
       </c>
       <c r="C690">
-        <v>2111</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8006,7 +8006,7 @@
         <v>8</v>
       </c>
       <c r="C691">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8017,7 +8017,7 @@
         <v>3</v>
       </c>
       <c r="C692">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8028,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="C693">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8039,7 +8039,7 @@
         <v>5</v>
       </c>
       <c r="C694">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8061,7 +8061,7 @@
         <v>7</v>
       </c>
       <c r="C696">
-        <v>2632</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8072,7 +8072,7 @@
         <v>8</v>
       </c>
       <c r="C697">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8083,7 +8083,7 @@
         <v>3</v>
       </c>
       <c r="C698">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8094,7 +8094,7 @@
         <v>4</v>
       </c>
       <c r="C699">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8105,7 +8105,7 @@
         <v>5</v>
       </c>
       <c r="C700">
-        <v>2064</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8127,7 +8127,7 @@
         <v>7</v>
       </c>
       <c r="C702">
-        <v>3082</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8138,7 +8138,7 @@
         <v>8</v>
       </c>
       <c r="C703">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8149,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="C704">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8160,7 +8160,7 @@
         <v>4</v>
       </c>
       <c r="C705">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8193,7 +8193,7 @@
         <v>7</v>
       </c>
       <c r="C708">
-        <v>3877</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8204,7 +8204,7 @@
         <v>8</v>
       </c>
       <c r="C709">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8215,7 +8215,7 @@
         <v>3</v>
       </c>
       <c r="C710">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8226,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="C711">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8237,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="C712">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8248,7 +8248,7 @@
         <v>6</v>
       </c>
       <c r="C713">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8259,7 +8259,7 @@
         <v>7</v>
       </c>
       <c r="C714">
-        <v>3239</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8270,7 +8270,7 @@
         <v>8</v>
       </c>
       <c r="C715">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8281,7 +8281,7 @@
         <v>3</v>
       </c>
       <c r="C716">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8292,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="C717">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8325,7 +8325,7 @@
         <v>7</v>
       </c>
       <c r="C720">
-        <v>3901</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8336,7 +8336,7 @@
         <v>8</v>
       </c>
       <c r="C721">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8347,7 +8347,7 @@
         <v>3</v>
       </c>
       <c r="C722">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="C723">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8369,7 +8369,7 @@
         <v>5</v>
       </c>
       <c r="C724">
-        <v>1829</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8380,7 +8380,7 @@
         <v>6</v>
       </c>
       <c r="C725">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8391,7 +8391,7 @@
         <v>7</v>
       </c>
       <c r="C726">
-        <v>3317</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8402,7 +8402,7 @@
         <v>8</v>
       </c>
       <c r="C727">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8413,7 +8413,7 @@
         <v>3</v>
       </c>
       <c r="C728">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8424,7 +8424,7 @@
         <v>4</v>
       </c>
       <c r="C729">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8435,7 +8435,7 @@
         <v>5</v>
       </c>
       <c r="C730">
-        <v>1934</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8446,7 +8446,7 @@
         <v>6</v>
       </c>
       <c r="C731">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8457,7 +8457,7 @@
         <v>7</v>
       </c>
       <c r="C732">
-        <v>4029</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8468,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="C733">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8479,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="C734">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8490,7 +8490,7 @@
         <v>4</v>
       </c>
       <c r="C735">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8523,7 +8523,7 @@
         <v>7</v>
       </c>
       <c r="C738">
-        <v>3650</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8534,7 +8534,7 @@
         <v>8</v>
       </c>
       <c r="C739">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8545,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="C740">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8556,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="C741">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8567,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="C742">
-        <v>2027</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8578,7 +8578,7 @@
         <v>6</v>
       </c>
       <c r="C743">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8589,7 +8589,7 @@
         <v>7</v>
       </c>
       <c r="C744">
-        <v>6064</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8600,7 +8600,7 @@
         <v>8</v>
       </c>
       <c r="C745">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8611,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="C746">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8622,7 +8622,7 @@
         <v>4</v>
       </c>
       <c r="C747">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8644,7 +8644,7 @@
         <v>6</v>
       </c>
       <c r="C749">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8655,7 +8655,7 @@
         <v>7</v>
       </c>
       <c r="C750">
-        <v>5570</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8666,7 +8666,7 @@
         <v>8</v>
       </c>
       <c r="C751">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8677,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="C752">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8688,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="C753">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8710,7 +8710,7 @@
         <v>6</v>
       </c>
       <c r="C755">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8721,7 +8721,7 @@
         <v>7</v>
       </c>
       <c r="C756">
-        <v>2739</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8732,7 +8732,7 @@
         <v>8</v>
       </c>
       <c r="C757">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8743,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="C758">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8754,7 +8754,7 @@
         <v>4</v>
       </c>
       <c r="C759">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8765,7 +8765,7 @@
         <v>5</v>
       </c>
       <c r="C760">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8776,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="C761">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8787,7 +8787,7 @@
         <v>7</v>
       </c>
       <c r="C762">
-        <v>2270</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8798,7 +8798,7 @@
         <v>8</v>
       </c>
       <c r="C763">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="C764">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8820,7 +8820,7 @@
         <v>4</v>
       </c>
       <c r="C765">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8831,7 +8831,7 @@
         <v>5</v>
       </c>
       <c r="C766">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8842,7 +8842,7 @@
         <v>6</v>
       </c>
       <c r="C767">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8853,7 +8853,7 @@
         <v>7</v>
       </c>
       <c r="C768">
-        <v>1855</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8864,7 +8864,7 @@
         <v>8</v>
       </c>
       <c r="C769">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8875,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="C770">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8886,7 +8886,7 @@
         <v>4</v>
       </c>
       <c r="C771">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8897,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="C772">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8908,7 +8908,7 @@
         <v>6</v>
       </c>
       <c r="C773">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8919,7 +8919,7 @@
         <v>7</v>
       </c>
       <c r="C774">
-        <v>1708</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8930,7 +8930,7 @@
         <v>8</v>
       </c>
       <c r="C775">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8941,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="C776">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8952,7 +8952,7 @@
         <v>4</v>
       </c>
       <c r="C777">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8963,7 +8963,7 @@
         <v>5</v>
       </c>
       <c r="C778">
-        <v>1666</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8974,7 +8974,7 @@
         <v>6</v>
       </c>
       <c r="C779">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8985,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="C780">
-        <v>1781</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -8996,7 +8996,7 @@
         <v>8</v>
       </c>
       <c r="C781">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9007,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="C782">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9018,7 +9018,7 @@
         <v>4</v>
       </c>
       <c r="C783">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9029,7 +9029,7 @@
         <v>5</v>
       </c>
       <c r="C784">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9040,7 +9040,7 @@
         <v>6</v>
       </c>
       <c r="C785">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9051,7 +9051,7 @@
         <v>7</v>
       </c>
       <c r="C786">
-        <v>2154</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9062,7 +9062,7 @@
         <v>8</v>
       </c>
       <c r="C787">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9073,7 +9073,7 @@
         <v>3</v>
       </c>
       <c r="C788">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9084,7 +9084,7 @@
         <v>4</v>
       </c>
       <c r="C789">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9095,7 +9095,7 @@
         <v>5</v>
       </c>
       <c r="C790">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9106,7 +9106,7 @@
         <v>6</v>
       </c>
       <c r="C791">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9117,7 +9117,7 @@
         <v>7</v>
       </c>
       <c r="C792">
-        <v>1590</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9128,7 +9128,7 @@
         <v>8</v>
       </c>
       <c r="C793">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9139,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="C794">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9150,7 +9150,7 @@
         <v>4</v>
       </c>
       <c r="C795">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9161,7 +9161,7 @@
         <v>5</v>
       </c>
       <c r="C796">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="C797">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9183,7 +9183,7 @@
         <v>7</v>
       </c>
       <c r="C798">
-        <v>1873</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9194,7 +9194,7 @@
         <v>8</v>
       </c>
       <c r="C799">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9205,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="C800">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9216,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="C801">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9227,7 +9227,7 @@
         <v>5</v>
       </c>
       <c r="C802">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9238,7 +9238,7 @@
         <v>6</v>
       </c>
       <c r="C803">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9249,7 +9249,7 @@
         <v>7</v>
       </c>
       <c r="C804">
-        <v>2265</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9260,7 +9260,7 @@
         <v>8</v>
       </c>
       <c r="C805">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9271,7 +9271,7 @@
         <v>3</v>
       </c>
       <c r="C806">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9282,7 +9282,7 @@
         <v>4</v>
       </c>
       <c r="C807">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9293,7 +9293,7 @@
         <v>5</v>
       </c>
       <c r="C808">
-        <v>1323</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9304,7 +9304,7 @@
         <v>6</v>
       </c>
       <c r="C809">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9315,7 +9315,7 @@
         <v>7</v>
       </c>
       <c r="C810">
-        <v>1556</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9326,7 +9326,7 @@
         <v>8</v>
       </c>
       <c r="C811">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9337,7 +9337,7 @@
         <v>3</v>
       </c>
       <c r="C812">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9348,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="C813">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9359,7 +9359,7 @@
         <v>5</v>
       </c>
       <c r="C814">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9370,7 +9370,7 @@
         <v>6</v>
       </c>
       <c r="C815">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9381,7 +9381,7 @@
         <v>7</v>
       </c>
       <c r="C816">
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9403,7 +9403,7 @@
         <v>3</v>
       </c>
       <c r="C818">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9414,7 +9414,7 @@
         <v>4</v>
       </c>
       <c r="C819">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9425,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="C820">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9436,7 +9436,7 @@
         <v>6</v>
       </c>
       <c r="C821">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9447,7 +9447,7 @@
         <v>7</v>
       </c>
       <c r="C822">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9458,7 +9458,7 @@
         <v>8</v>
       </c>
       <c r="C823">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="C824">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9491,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="C826">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9502,7 +9502,7 @@
         <v>6</v>
       </c>
       <c r="C827">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9513,7 +9513,7 @@
         <v>7</v>
       </c>
       <c r="C828">
-        <v>1701</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9524,7 +9524,7 @@
         <v>8</v>
       </c>
       <c r="C829">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9535,7 +9535,7 @@
         <v>3</v>
       </c>
       <c r="C830">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9546,7 +9546,7 @@
         <v>4</v>
       </c>
       <c r="C831">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="C833">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9579,7 +9579,7 @@
         <v>7</v>
       </c>
       <c r="C834">
-        <v>1550</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9590,7 +9590,7 @@
         <v>8</v>
       </c>
       <c r="C835">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9601,7 +9601,7 @@
         <v>3</v>
       </c>
       <c r="C836">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9612,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="C837">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>5</v>
       </c>
       <c r="C838">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9634,7 +9634,7 @@
         <v>6</v>
       </c>
       <c r="C839">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9645,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="C840">
-        <v>1753</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9656,7 +9656,7 @@
         <v>8</v>
       </c>
       <c r="C841">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9667,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="C842">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9678,7 +9678,7 @@
         <v>4</v>
       </c>
       <c r="C843">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9700,7 +9700,7 @@
         <v>6</v>
       </c>
       <c r="C845">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9711,7 +9711,7 @@
         <v>7</v>
       </c>
       <c r="C846">
-        <v>1643</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9722,7 +9722,7 @@
         <v>8</v>
       </c>
       <c r="C847">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9733,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="C848">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="C849">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9755,7 +9755,7 @@
         <v>5</v>
       </c>
       <c r="C850">
-        <v>1452</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9777,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="C852">
-        <v>1470</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9788,7 +9788,7 @@
         <v>8</v>
       </c>
       <c r="C853">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9799,7 +9799,7 @@
         <v>3</v>
       </c>
       <c r="C854">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9810,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="C855">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9843,7 +9843,7 @@
         <v>7</v>
       </c>
       <c r="C858">
-        <v>1616</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9854,7 +9854,7 @@
         <v>8</v>
       </c>
       <c r="C859">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9865,7 +9865,7 @@
         <v>3</v>
       </c>
       <c r="C860">
-        <v>305</v>
+        <v>366</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9876,7 +9876,7 @@
         <v>4</v>
       </c>
       <c r="C861">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9887,7 +9887,7 @@
         <v>5</v>
       </c>
       <c r="C862">
-        <v>1473</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9898,7 +9898,7 @@
         <v>6</v>
       </c>
       <c r="C863">
-        <v>275</v>
+        <v>321</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9909,7 +9909,7 @@
         <v>7</v>
       </c>
       <c r="C864">
-        <v>1273</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9920,7 +9920,7 @@
         <v>8</v>
       </c>
       <c r="C865">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>3</v>
       </c>
       <c r="C866">
-        <v>373</v>
+        <v>475</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9942,7 +9942,7 @@
         <v>4</v>
       </c>
       <c r="C867">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9953,7 +9953,7 @@
         <v>5</v>
       </c>
       <c r="C868">
-        <v>1645</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9964,7 +9964,7 @@
         <v>6</v>
       </c>
       <c r="C869">
-        <v>290</v>
+        <v>402</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>7</v>
       </c>
       <c r="C870">
-        <v>1257</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9986,7 +9986,7 @@
         <v>8</v>
       </c>
       <c r="C871">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>3</v>
       </c>
       <c r="C872">
-        <v>257</v>
+        <v>388</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -10008,7 +10008,7 @@
         <v>4</v>
       </c>
       <c r="C873">
-        <v>185</v>
+        <v>288</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10019,7 +10019,7 @@
         <v>5</v>
       </c>
       <c r="C874">
-        <v>1465</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10030,7 +10030,7 @@
         <v>6</v>
       </c>
       <c r="C875">
-        <v>279</v>
+        <v>406</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10041,7 +10041,7 @@
         <v>7</v>
       </c>
       <c r="C876">
-        <v>1229</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10052,7 +10052,7 @@
         <v>8</v>
       </c>
       <c r="C877">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10063,7 +10063,7 @@
         <v>3</v>
       </c>
       <c r="C878">
-        <v>93</v>
+        <v>420</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10074,7 +10074,7 @@
         <v>4</v>
       </c>
       <c r="C879">
-        <v>58</v>
+        <v>243</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10085,7 +10085,7 @@
         <v>5</v>
       </c>
       <c r="C880">
-        <v>444</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10096,7 +10096,7 @@
         <v>6</v>
       </c>
       <c r="C881">
-        <v>91</v>
+        <v>542</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10107,7 +10107,7 @@
         <v>7</v>
       </c>
       <c r="C882">
-        <v>297</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10118,7 +10118,7 @@
         <v>8</v>
       </c>
       <c r="C883">
-        <v>80</v>
+        <v>283</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>3</v>
       </c>
       <c r="C884">
-        <v>2</v>
+        <v>556</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10140,7 +10140,7 @@
         <v>4</v>
       </c>
       <c r="C885">
-        <v>5</v>
+        <v>284</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10151,7 +10151,7 @@
         <v>5</v>
       </c>
       <c r="C886">
-        <v>74</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10162,7 +10162,7 @@
         <v>6</v>
       </c>
       <c r="C887">
-        <v>7</v>
+        <v>480</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>7</v>
       </c>
       <c r="C888">
-        <v>22</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10184,7 +10184,7 @@
         <v>8</v>
       </c>
       <c r="C889">
-        <v>9</v>
+        <v>315</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10195,7 +10195,7 @@
         <v>3</v>
       </c>
       <c r="C890">
-        <v>17</v>
+        <v>541</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10206,7 +10206,7 @@
         <v>4</v>
       </c>
       <c r="C891">
-        <v>2</v>
+        <v>282</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10217,7 +10217,7 @@
         <v>5</v>
       </c>
       <c r="C892">
-        <v>28</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10228,7 +10228,7 @@
         <v>6</v>
       </c>
       <c r="C893">
-        <v>6</v>
+        <v>347</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10239,7 +10239,7 @@
         <v>7</v>
       </c>
       <c r="C894">
-        <v>43</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10250,7 +10250,7 @@
         <v>8</v>
       </c>
       <c r="C895">
-        <v>1</v>
+        <v>301</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10261,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="C896">
-        <v>5</v>
+        <v>353</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10272,7 +10272,7 @@
         <v>4</v>
       </c>
       <c r="C897">
-        <v>10</v>
+        <v>294</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10283,7 +10283,7 @@
         <v>5</v>
       </c>
       <c r="C898">
-        <v>45</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10294,7 +10294,7 @@
         <v>6</v>
       </c>
       <c r="C899">
-        <v>9</v>
+        <v>374</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10305,7 +10305,7 @@
         <v>7</v>
       </c>
       <c r="C900">
-        <v>87</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10316,7 +10316,7 @@
         <v>8</v>
       </c>
       <c r="C901">
-        <v>6</v>
+        <v>302</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10327,7 +10327,7 @@
         <v>3</v>
       </c>
       <c r="C902">
-        <v>1</v>
+        <v>396</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10335,10 +10335,10 @@
         <v>44521</v>
       </c>
       <c r="B903" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C903">
-        <v>27</v>
+        <v>300</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10346,10 +10346,10 @@
         <v>44521</v>
       </c>
       <c r="B904" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C904">
-        <v>4</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10357,10 +10357,10 @@
         <v>44521</v>
       </c>
       <c r="B905" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C905">
-        <v>43</v>
+        <v>375</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10368,21 +10368,21 @@
         <v>44521</v>
       </c>
       <c r="B906" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C906">
-        <v>3</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="907" spans="1:3">
       <c r="A907" s="2">
-        <v>44528</v>
+        <v>44521</v>
       </c>
       <c r="B907" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C907">
-        <v>4</v>
+        <v>364</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10390,10 +10390,10 @@
         <v>44528</v>
       </c>
       <c r="B908" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C908">
-        <v>1</v>
+        <v>671</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10401,10 +10401,10 @@
         <v>44528</v>
       </c>
       <c r="B909" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C909">
-        <v>50</v>
+        <v>397</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10412,10 +10412,10 @@
         <v>44528</v>
       </c>
       <c r="B910" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C910">
-        <v>12</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10423,10 +10423,10 @@
         <v>44528</v>
       </c>
       <c r="B911" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C911">
-        <v>37</v>
+        <v>451</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10434,21 +10434,21 @@
         <v>44528</v>
       </c>
       <c r="B912" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C912">
-        <v>1</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="913" spans="1:3">
       <c r="A913" s="2">
-        <v>44535</v>
+        <v>44528</v>
       </c>
       <c r="B913" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C913">
-        <v>3</v>
+        <v>378</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10456,10 +10456,10 @@
         <v>44535</v>
       </c>
       <c r="B914" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C914">
-        <v>40</v>
+        <v>524</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10467,10 +10467,10 @@
         <v>44535</v>
       </c>
       <c r="B915" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C915">
-        <v>12</v>
+        <v>479</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10478,10 +10478,10 @@
         <v>44535</v>
       </c>
       <c r="B916" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C916">
-        <v>11</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10489,1726 +10489,1748 @@
         <v>44535</v>
       </c>
       <c r="B917" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C917">
-        <v>10</v>
+        <v>477</v>
       </c>
     </row>
     <row r="918" spans="1:3">
       <c r="A918" s="2">
-        <v>44556</v>
+        <v>44535</v>
       </c>
       <c r="B918" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C918">
-        <v>526</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="919" spans="1:3">
       <c r="A919" s="2">
-        <v>44556</v>
+        <v>44535</v>
       </c>
       <c r="B919" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C919">
-        <v>133</v>
+        <v>385</v>
       </c>
     </row>
     <row r="920" spans="1:3">
       <c r="A920" s="2">
-        <v>44556</v>
+        <v>44542</v>
       </c>
       <c r="B920" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C920">
-        <v>444</v>
+        <v>618</v>
       </c>
     </row>
     <row r="921" spans="1:3">
       <c r="A921" s="2">
-        <v>44556</v>
+        <v>44542</v>
       </c>
       <c r="B921" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C921">
-        <v>83</v>
+        <v>371</v>
       </c>
     </row>
     <row r="922" spans="1:3">
       <c r="A922" s="2">
-        <v>44556</v>
+        <v>44542</v>
       </c>
       <c r="B922" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C922">
-        <v>2545</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="923" spans="1:3">
       <c r="A923" s="2">
-        <v>44556</v>
+        <v>44542</v>
       </c>
       <c r="B923" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C923">
-        <v>101</v>
+        <v>448</v>
       </c>
     </row>
     <row r="924" spans="1:3">
       <c r="A924" s="2">
-        <v>44563</v>
+        <v>44542</v>
       </c>
       <c r="B924" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C924">
-        <v>427</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="925" spans="1:3">
       <c r="A925" s="2">
-        <v>44563</v>
+        <v>44542</v>
       </c>
       <c r="B925" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C925">
-        <v>174</v>
+        <v>374</v>
       </c>
     </row>
     <row r="926" spans="1:3">
       <c r="A926" s="2">
-        <v>44563</v>
+        <v>44549</v>
       </c>
       <c r="B926" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C926">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="927" spans="1:3">
       <c r="A927" s="2">
-        <v>44563</v>
+        <v>44549</v>
       </c>
       <c r="B927" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C927">
-        <v>188</v>
+        <v>279</v>
       </c>
     </row>
     <row r="928" spans="1:3">
       <c r="A928" s="2">
-        <v>44563</v>
+        <v>44549</v>
       </c>
       <c r="B928" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C928">
-        <v>3276</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="929" spans="1:3">
       <c r="A929" s="2">
-        <v>44563</v>
+        <v>44549</v>
       </c>
       <c r="B929" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C929">
-        <v>148</v>
+        <v>360</v>
       </c>
     </row>
     <row r="930" spans="1:3">
       <c r="A930" s="2">
-        <v>44570</v>
+        <v>44549</v>
       </c>
       <c r="B930" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C930">
-        <v>552</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="931" spans="1:3">
       <c r="A931" s="2">
-        <v>44570</v>
+        <v>44549</v>
       </c>
       <c r="B931" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C931">
-        <v>139</v>
+        <v>319</v>
       </c>
     </row>
     <row r="932" spans="1:3">
       <c r="A932" s="2">
-        <v>44570</v>
+        <v>44556</v>
       </c>
       <c r="B932" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C932">
-        <v>1069</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="933" spans="1:3">
       <c r="A933" s="2">
-        <v>44570</v>
+        <v>44556</v>
       </c>
       <c r="B933" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C933">
-        <v>250</v>
+        <v>385</v>
       </c>
     </row>
     <row r="934" spans="1:3">
       <c r="A934" s="2">
-        <v>44570</v>
+        <v>44556</v>
       </c>
       <c r="B934" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C934">
-        <v>2282</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="935" spans="1:3">
       <c r="A935" s="2">
-        <v>44570</v>
+        <v>44556</v>
       </c>
       <c r="B935" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C935">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="936" spans="1:3">
       <c r="A936" s="2">
-        <v>44577</v>
+        <v>44556</v>
       </c>
       <c r="B936" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C936">
-        <v>358</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="937" spans="1:3">
       <c r="A937" s="2">
-        <v>44577</v>
+        <v>44556</v>
       </c>
       <c r="B937" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C937">
-        <v>147</v>
+        <v>282</v>
       </c>
     </row>
     <row r="938" spans="1:3">
       <c r="A938" s="2">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B938" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C938">
-        <v>1069</v>
+        <v>459</v>
       </c>
     </row>
     <row r="939" spans="1:3">
       <c r="A939" s="2">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B939" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C939">
-        <v>256</v>
+        <v>199</v>
       </c>
     </row>
     <row r="940" spans="1:3">
       <c r="A940" s="2">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B940" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C940">
-        <v>1534</v>
+        <v>836</v>
       </c>
     </row>
     <row r="941" spans="1:3">
       <c r="A941" s="2">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B941" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C941">
-        <v>300</v>
+        <v>214</v>
       </c>
     </row>
     <row r="942" spans="1:3">
       <c r="A942" s="2">
-        <v>44584</v>
+        <v>44563</v>
       </c>
       <c r="B942" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C942">
-        <v>290</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="943" spans="1:3">
       <c r="A943" s="2">
-        <v>44584</v>
+        <v>44563</v>
       </c>
       <c r="B943" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C943">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="944" spans="1:3">
       <c r="A944" s="2">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B944" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C944">
-        <v>1256</v>
+        <v>520</v>
       </c>
     </row>
     <row r="945" spans="1:3">
       <c r="A945" s="2">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B945" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C945">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="946" spans="1:3">
       <c r="A946" s="2">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B946" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C946">
-        <v>1605</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="947" spans="1:3">
       <c r="A947" s="2">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B947" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C947">
-        <v>306</v>
+        <v>234</v>
       </c>
     </row>
     <row r="948" spans="1:3">
       <c r="A948" s="2">
-        <v>44591</v>
+        <v>44570</v>
       </c>
       <c r="B948" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C948">
-        <v>398</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="949" spans="1:3">
       <c r="A949" s="2">
-        <v>44591</v>
+        <v>44570</v>
       </c>
       <c r="B949" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C949">
-        <v>183</v>
+        <v>294</v>
       </c>
     </row>
     <row r="950" spans="1:3">
       <c r="A950" s="2">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B950" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C950">
-        <v>1515</v>
+        <v>385</v>
       </c>
     </row>
     <row r="951" spans="1:3">
       <c r="A951" s="2">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B951" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C951">
-        <v>287</v>
+        <v>240</v>
       </c>
     </row>
     <row r="952" spans="1:3">
       <c r="A952" s="2">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B952" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C952">
-        <v>2014</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="953" spans="1:3">
       <c r="A953" s="2">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B953" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C953">
-        <v>340</v>
+        <v>292</v>
       </c>
     </row>
     <row r="954" spans="1:3">
       <c r="A954" s="2">
-        <v>44598</v>
+        <v>44577</v>
       </c>
       <c r="B954" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C954">
-        <v>363</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="955" spans="1:3">
       <c r="A955" s="2">
-        <v>44598</v>
+        <v>44577</v>
       </c>
       <c r="B955" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C955">
-        <v>162</v>
+        <v>293</v>
       </c>
     </row>
     <row r="956" spans="1:3">
       <c r="A956" s="2">
-        <v>44598</v>
+        <v>44584</v>
       </c>
       <c r="B956" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C956">
-        <v>1422</v>
+        <v>285</v>
       </c>
     </row>
     <row r="957" spans="1:3">
       <c r="A957" s="2">
-        <v>44598</v>
+        <v>44584</v>
       </c>
       <c r="B957" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C957">
-        <v>319</v>
+        <v>217</v>
       </c>
     </row>
     <row r="958" spans="1:3">
       <c r="A958" s="2">
-        <v>44598</v>
+        <v>44584</v>
       </c>
       <c r="B958" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C958">
-        <v>2087</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="959" spans="1:3">
       <c r="A959" s="2">
-        <v>44598</v>
+        <v>44584</v>
       </c>
       <c r="B959" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C959">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="960" spans="1:3">
       <c r="A960" s="2">
-        <v>44605</v>
+        <v>44584</v>
       </c>
       <c r="B960" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C960">
-        <v>341</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="961" spans="1:3">
       <c r="A961" s="2">
-        <v>44605</v>
+        <v>44584</v>
       </c>
       <c r="B961" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C961">
-        <v>166</v>
+        <v>331</v>
       </c>
     </row>
     <row r="962" spans="1:3">
       <c r="A962" s="2">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="B962" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C962">
-        <v>1360</v>
+        <v>464</v>
       </c>
     </row>
     <row r="963" spans="1:3">
       <c r="A963" s="2">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="B963" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C963">
-        <v>335</v>
+        <v>197</v>
       </c>
     </row>
     <row r="964" spans="1:3">
       <c r="A964" s="2">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="B964" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C964">
-        <v>2107</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="965" spans="1:3">
       <c r="A965" s="2">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="B965" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C965">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="966" spans="1:3">
       <c r="A966" s="2">
-        <v>44612</v>
+        <v>44591</v>
       </c>
       <c r="B966" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C966">
-        <v>1282</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="967" spans="1:3">
       <c r="A967" s="2">
-        <v>44612</v>
+        <v>44591</v>
       </c>
       <c r="B967" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C967">
-        <v>271</v>
+        <v>360</v>
       </c>
     </row>
     <row r="968" spans="1:3">
       <c r="A968" s="2">
-        <v>44612</v>
+        <v>44598</v>
       </c>
       <c r="B968" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C968">
-        <v>1467</v>
+        <v>357</v>
       </c>
     </row>
     <row r="969" spans="1:3">
       <c r="A969" s="2">
-        <v>44612</v>
+        <v>44598</v>
       </c>
       <c r="B969" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C969">
-        <v>453</v>
+        <v>173</v>
       </c>
     </row>
     <row r="970" spans="1:3">
       <c r="A970" s="2">
-        <v>44612</v>
+        <v>44598</v>
       </c>
       <c r="B970" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C970">
-        <v>3659</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="971" spans="1:3">
       <c r="A971" s="2">
-        <v>44612</v>
+        <v>44598</v>
       </c>
       <c r="B971" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C971">
-        <v>438</v>
+        <v>312</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="A972" s="2">
-        <v>44619</v>
+        <v>44598</v>
       </c>
       <c r="B972" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C972">
-        <v>537</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="A973" s="2">
-        <v>44619</v>
+        <v>44598</v>
       </c>
       <c r="B973" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C973">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="974" spans="1:3">
       <c r="A974" s="2">
-        <v>44619</v>
+        <v>44605</v>
       </c>
       <c r="B974" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C974">
-        <v>1404</v>
+        <v>361</v>
       </c>
     </row>
     <row r="975" spans="1:3">
       <c r="A975" s="2">
-        <v>44619</v>
+        <v>44605</v>
       </c>
       <c r="B975" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C975">
-        <v>429</v>
+        <v>172</v>
       </c>
     </row>
     <row r="976" spans="1:3">
       <c r="A976" s="2">
-        <v>44619</v>
+        <v>44605</v>
       </c>
       <c r="B976" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C976">
-        <v>2520</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="977" spans="1:3">
       <c r="A977" s="2">
-        <v>44619</v>
+        <v>44605</v>
       </c>
       <c r="B977" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C977">
-        <v>312</v>
+        <v>367</v>
       </c>
     </row>
     <row r="978" spans="1:3">
       <c r="A978" s="2">
-        <v>44626</v>
+        <v>44605</v>
       </c>
       <c r="B978" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C978">
-        <v>283</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="979" spans="1:3">
       <c r="A979" s="2">
-        <v>44626</v>
+        <v>44605</v>
       </c>
       <c r="B979" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C979">
-        <v>185</v>
+        <v>315</v>
       </c>
     </row>
     <row r="980" spans="1:3">
       <c r="A980" s="2">
-        <v>44626</v>
+        <v>44612</v>
       </c>
       <c r="B980" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C980">
-        <v>1346</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="981" spans="1:3">
       <c r="A981" s="2">
-        <v>44626</v>
+        <v>44612</v>
       </c>
       <c r="B981" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C981">
-        <v>352</v>
+        <v>286</v>
       </c>
     </row>
     <row r="982" spans="1:3">
       <c r="A982" s="2">
-        <v>44626</v>
+        <v>44612</v>
       </c>
       <c r="B982" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C982">
-        <v>1987</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="983" spans="1:3">
       <c r="A983" s="2">
-        <v>44626</v>
+        <v>44612</v>
       </c>
       <c r="B983" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C983">
-        <v>314</v>
+        <v>497</v>
       </c>
     </row>
     <row r="984" spans="1:3">
       <c r="A984" s="2">
-        <v>44633</v>
+        <v>44612</v>
       </c>
       <c r="B984" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C984">
-        <v>337</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="985" spans="1:3">
       <c r="A985" s="2">
-        <v>44633</v>
+        <v>44612</v>
       </c>
       <c r="B985" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C985">
-        <v>248</v>
+        <v>423</v>
       </c>
     </row>
     <row r="986" spans="1:3">
       <c r="A986" s="2">
-        <v>44633</v>
+        <v>44619</v>
       </c>
       <c r="B986" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C986">
-        <v>1391</v>
+        <v>602</v>
       </c>
     </row>
     <row r="987" spans="1:3">
       <c r="A987" s="2">
-        <v>44633</v>
+        <v>44619</v>
       </c>
       <c r="B987" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C987">
-        <v>318</v>
+        <v>222</v>
       </c>
     </row>
     <row r="988" spans="1:3">
       <c r="A988" s="2">
-        <v>44633</v>
+        <v>44619</v>
       </c>
       <c r="B988" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C988">
-        <v>1872</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="989" spans="1:3">
       <c r="A989" s="2">
-        <v>44633</v>
+        <v>44619</v>
       </c>
       <c r="B989" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C989">
-        <v>355</v>
+        <v>438</v>
       </c>
     </row>
     <row r="990" spans="1:3">
       <c r="A990" s="2">
-        <v>44640</v>
+        <v>44619</v>
       </c>
       <c r="B990" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C990">
-        <v>350</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="991" spans="1:3">
       <c r="A991" s="2">
-        <v>44640</v>
+        <v>44619</v>
       </c>
       <c r="B991" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C991">
-        <v>274</v>
+        <v>332</v>
       </c>
     </row>
     <row r="992" spans="1:3">
       <c r="A992" s="2">
-        <v>44640</v>
+        <v>44626</v>
       </c>
       <c r="B992" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C992">
-        <v>1249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="993" spans="1:3">
       <c r="A993" s="2">
-        <v>44640</v>
+        <v>44626</v>
       </c>
       <c r="B993" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C993">
-        <v>339</v>
+        <v>212</v>
       </c>
     </row>
     <row r="994" spans="1:3">
       <c r="A994" s="2">
-        <v>44640</v>
+        <v>44626</v>
       </c>
       <c r="B994" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C994">
-        <v>2022</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="995" spans="1:3">
       <c r="A995" s="2">
-        <v>44640</v>
+        <v>44626</v>
       </c>
       <c r="B995" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C995">
-        <v>325</v>
+        <v>353</v>
       </c>
     </row>
     <row r="996" spans="1:3">
       <c r="A996" s="2">
-        <v>44647</v>
+        <v>44626</v>
       </c>
       <c r="B996" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C996">
-        <v>383</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="997" spans="1:3">
       <c r="A997" s="2">
-        <v>44647</v>
+        <v>44626</v>
       </c>
       <c r="B997" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C997">
-        <v>153</v>
+        <v>337</v>
       </c>
     </row>
     <row r="998" spans="1:3">
       <c r="A998" s="2">
-        <v>44647</v>
+        <v>44633</v>
       </c>
       <c r="B998" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C998">
-        <v>1264</v>
+        <v>340</v>
       </c>
     </row>
     <row r="999" spans="1:3">
       <c r="A999" s="2">
-        <v>44647</v>
+        <v>44633</v>
       </c>
       <c r="B999" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C999">
-        <v>347</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" s="2">
-        <v>44647</v>
+        <v>44633</v>
       </c>
       <c r="B1000" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1000">
-        <v>2096</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" s="2">
-        <v>44647</v>
+        <v>44633</v>
       </c>
       <c r="B1001" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1001">
-        <v>295</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" s="2">
-        <v>44654</v>
+        <v>44633</v>
       </c>
       <c r="B1002" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1002">
-        <v>419</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" s="2">
-        <v>44654</v>
+        <v>44633</v>
       </c>
       <c r="B1003" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1003">
-        <v>192</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" s="2">
-        <v>44654</v>
+        <v>44640</v>
       </c>
       <c r="B1004" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1004">
-        <v>1476</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" s="2">
-        <v>44654</v>
+        <v>44640</v>
       </c>
       <c r="B1005" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1005">
-        <v>484</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" s="2">
-        <v>44654</v>
+        <v>44640</v>
       </c>
       <c r="B1006" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1006">
-        <v>2944</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" s="2">
-        <v>44654</v>
+        <v>44640</v>
       </c>
       <c r="B1007" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1007">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" s="2">
-        <v>44661</v>
+        <v>44640</v>
       </c>
       <c r="B1008" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1008">
-        <v>367</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
       <c r="A1009" s="2">
-        <v>44661</v>
+        <v>44640</v>
       </c>
       <c r="B1009" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1009">
-        <v>194</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" s="2">
-        <v>44661</v>
+        <v>44647</v>
       </c>
       <c r="B1010" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1010">
-        <v>1330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
       <c r="A1011" s="2">
-        <v>44661</v>
+        <v>44647</v>
       </c>
       <c r="B1011" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1011">
-        <v>462</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
       <c r="A1012" s="2">
-        <v>44661</v>
+        <v>44647</v>
       </c>
       <c r="B1012" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1012">
-        <v>2621</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
       <c r="A1013" s="2">
-        <v>44661</v>
+        <v>44647</v>
       </c>
       <c r="B1013" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1013">
-        <v>289</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
       <c r="A1014" s="2">
-        <v>44668</v>
+        <v>44647</v>
       </c>
       <c r="B1014" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1014">
-        <v>472</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
       <c r="A1015" s="2">
-        <v>44668</v>
+        <v>44647</v>
       </c>
       <c r="B1015" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1015">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
       <c r="A1016" s="2">
-        <v>44668</v>
+        <v>44654</v>
       </c>
       <c r="B1016" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1016">
-        <v>1329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
       <c r="A1017" s="2">
-        <v>44668</v>
+        <v>44654</v>
       </c>
       <c r="B1017" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1017">
-        <v>450</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
       <c r="A1018" s="2">
-        <v>44668</v>
+        <v>44654</v>
       </c>
       <c r="B1018" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1018">
-        <v>3111</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" s="2">
-        <v>44668</v>
+        <v>44654</v>
       </c>
       <c r="B1019" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1019">
-        <v>241</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020" s="2">
-        <v>44675</v>
+        <v>44654</v>
       </c>
       <c r="B1020" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1020">
-        <v>342</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
       <c r="A1021" s="2">
-        <v>44675</v>
+        <v>44654</v>
       </c>
       <c r="B1021" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1021">
-        <v>166</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" s="2">
-        <v>44675</v>
+        <v>44661</v>
       </c>
       <c r="B1022" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1022">
-        <v>1269</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
       <c r="A1023" s="2">
-        <v>44675</v>
+        <v>44661</v>
       </c>
       <c r="B1023" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1023">
-        <v>376</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
       <c r="A1024" s="2">
-        <v>44675</v>
+        <v>44661</v>
       </c>
       <c r="B1024" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1024">
-        <v>2121</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" s="2">
-        <v>44675</v>
+        <v>44661</v>
       </c>
       <c r="B1025" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1025">
-        <v>223</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
       <c r="A1026" s="2">
-        <v>44682</v>
+        <v>44661</v>
       </c>
       <c r="B1026" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1026">
-        <v>334</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" s="2">
-        <v>44682</v>
+        <v>44661</v>
       </c>
       <c r="B1027" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1027">
-        <v>200</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
       <c r="A1028" s="2">
-        <v>44682</v>
+        <v>44668</v>
       </c>
       <c r="B1028" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1028">
-        <v>1366</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029" s="2">
-        <v>44682</v>
+        <v>44668</v>
       </c>
       <c r="B1029" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1029">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
       <c r="A1030" s="2">
-        <v>44682</v>
+        <v>44668</v>
       </c>
       <c r="B1030" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1030">
-        <v>2049</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
       <c r="A1031" s="2">
-        <v>44682</v>
+        <v>44668</v>
       </c>
       <c r="B1031" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1031">
-        <v>306</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
       <c r="A1032" s="2">
-        <v>44689</v>
+        <v>44668</v>
       </c>
       <c r="B1032" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1032">
-        <v>314</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
       <c r="A1033" s="2">
-        <v>44689</v>
+        <v>44668</v>
       </c>
       <c r="B1033" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1033">
-        <v>161</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" s="2">
-        <v>44689</v>
+        <v>44675</v>
       </c>
       <c r="B1034" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1034">
-        <v>1171</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
       <c r="A1035" s="2">
-        <v>44689</v>
+        <v>44675</v>
       </c>
       <c r="B1035" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1035">
-        <v>370</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036" s="2">
-        <v>44689</v>
+        <v>44675</v>
       </c>
       <c r="B1036" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1036">
-        <v>1886</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
       <c r="A1037" s="2">
-        <v>44689</v>
+        <v>44675</v>
       </c>
       <c r="B1037" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1037">
-        <v>271</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
       <c r="A1038" s="2">
-        <v>44696</v>
+        <v>44675</v>
       </c>
       <c r="B1038" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1038">
-        <v>369</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
       <c r="A1039" s="2">
-        <v>44696</v>
+        <v>44675</v>
       </c>
       <c r="B1039" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1039">
-        <v>180</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
       <c r="A1040" s="2">
-        <v>44696</v>
+        <v>44682</v>
       </c>
       <c r="B1040" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1040">
-        <v>1359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
       <c r="A1041" s="2">
-        <v>44696</v>
+        <v>44682</v>
       </c>
       <c r="B1041" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1041">
-        <v>400</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
       <c r="A1042" s="2">
-        <v>44696</v>
+        <v>44682</v>
       </c>
       <c r="B1042" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1042">
-        <v>1724</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
       <c r="A1043" s="2">
-        <v>44696</v>
+        <v>44682</v>
       </c>
       <c r="B1043" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1043">
-        <v>325</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
       <c r="A1044" s="2">
-        <v>44703</v>
+        <v>44682</v>
       </c>
       <c r="B1044" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1044">
-        <v>381</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
       <c r="A1045" s="2">
-        <v>44703</v>
+        <v>44682</v>
       </c>
       <c r="B1045" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1045">
-        <v>196</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
       <c r="A1046" s="2">
-        <v>44703</v>
+        <v>44689</v>
       </c>
       <c r="B1046" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1046">
-        <v>1413</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
       <c r="A1047" s="2">
-        <v>44703</v>
+        <v>44689</v>
       </c>
       <c r="B1047" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1047">
-        <v>397</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
       <c r="A1048" s="2">
-        <v>44703</v>
+        <v>44689</v>
       </c>
       <c r="B1048" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1048">
-        <v>1887</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
       <c r="A1049" s="2">
-        <v>44703</v>
+        <v>44689</v>
       </c>
       <c r="B1049" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1049">
-        <v>281</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
       <c r="A1050" s="2">
-        <v>44710</v>
+        <v>44689</v>
       </c>
       <c r="B1050" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1050">
-        <v>381</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
       <c r="A1051" s="2">
-        <v>44710</v>
+        <v>44689</v>
       </c>
       <c r="B1051" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1051">
-        <v>186</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
       <c r="A1052" s="2">
-        <v>44710</v>
+        <v>44696</v>
       </c>
       <c r="B1052" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1052">
-        <v>1531</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
       <c r="A1053" s="2">
-        <v>44710</v>
+        <v>44696</v>
       </c>
       <c r="B1053" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1053">
-        <v>452</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
       <c r="A1054" s="2">
-        <v>44710</v>
+        <v>44696</v>
       </c>
       <c r="B1054" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1054">
-        <v>2283</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
       <c r="A1055" s="2">
-        <v>44710</v>
+        <v>44696</v>
       </c>
       <c r="B1055" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1055">
-        <v>241</v>
+        <v>397</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
       <c r="A1056" s="2">
-        <v>44717</v>
+        <v>44696</v>
       </c>
       <c r="B1056" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1056">
-        <v>493</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
       <c r="A1057" s="2">
-        <v>44717</v>
+        <v>44696</v>
       </c>
       <c r="B1057" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1057">
-        <v>276</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
       <c r="A1058" s="2">
-        <v>44717</v>
+        <v>44703</v>
       </c>
       <c r="B1058" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1058">
-        <v>1423</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
       <c r="A1059" s="2">
-        <v>44717</v>
+        <v>44703</v>
       </c>
       <c r="B1059" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1059">
-        <v>452</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
       <c r="A1060" s="2">
-        <v>44717</v>
+        <v>44703</v>
       </c>
       <c r="B1060" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1060">
-        <v>2937</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1061" spans="1:3">
       <c r="A1061" s="2">
-        <v>44717</v>
+        <v>44703</v>
       </c>
       <c r="B1061" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1061">
-        <v>263</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
       <c r="A1062" s="2">
-        <v>44724</v>
+        <v>44703</v>
       </c>
       <c r="B1062" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1062">
-        <v>316</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
       <c r="A1063" s="2">
-        <v>44724</v>
+        <v>44703</v>
       </c>
       <c r="B1063" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1063">
-        <v>258</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
       <c r="A1064" s="2">
-        <v>44724</v>
+        <v>44710</v>
       </c>
       <c r="B1064" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1064">
-        <v>1274</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
       <c r="A1065" s="2">
-        <v>44724</v>
+        <v>44710</v>
       </c>
       <c r="B1065" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1065">
-        <v>379</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1066" spans="1:3">
       <c r="A1066" s="2">
-        <v>44724</v>
+        <v>44710</v>
       </c>
       <c r="B1066" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1066">
-        <v>1859</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
       <c r="A1067" s="2">
-        <v>44724</v>
+        <v>44710</v>
       </c>
       <c r="B1067" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1067">
-        <v>297</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
       <c r="A1068" s="2">
-        <v>44731</v>
+        <v>44710</v>
       </c>
       <c r="B1068" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1068">
-        <v>7</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
       <c r="A1069" s="2">
-        <v>44731</v>
+        <v>44710</v>
       </c>
       <c r="B1069" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1069">
-        <v>11</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
       <c r="A1070" s="2">
-        <v>44731</v>
+        <v>44717</v>
       </c>
       <c r="B1070" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1070">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071" s="2">
-        <v>44731</v>
+        <v>44717</v>
       </c>
       <c r="B1071" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1071">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
       <c r="A1072" s="2">
-        <v>44731</v>
+        <v>44717</v>
       </c>
       <c r="B1072" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1072">
-        <v>76</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
       <c r="A1073" s="2">
-        <v>44731</v>
+        <v>44717</v>
       </c>
       <c r="B1073" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1073">
-        <v>18</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3">
+      <c r="A1074" s="2">
+        <v>44717</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1074">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3">
+      <c r="A1075" s="2">
+        <v>44717</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1075">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
